--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B57" s="65">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B91" s="65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
